--- a/handlers/materials_for_studying/task_1/task_1.xlsx
+++ b/handlers/materials_for_studying/task_1/task_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\easyegerussian_bot\handlers\materials_for_studying\task_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\win_ubuntu\telegram_bot\handlers\materials_for_studying\task_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CBD67C-A88D-4B7D-85B5-4DDFCCB0BEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7104F97-5965-4626-A3FD-88A2830F0CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -427,24 +427,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" customWidth="1"/>
+    <col min="4" max="4" width="44.1328125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.73046875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -482,6 +482,36 @@
       </c>
       <c r="D2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/handlers/materials_for_studying/task_1/task_1.xlsx
+++ b/handlers/materials_for_studying/task_1/task_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\win_ubuntu\telegram_bot\handlers\materials_for_studying\task_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7104F97-5965-4626-A3FD-88A2830F0CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FCFE53-2D50-43B9-B2EB-F406C344D6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,22 +48,21 @@
     <t>№ теории</t>
   </si>
   <si>
-    <t>Прочитайте текст и выполните задания 1−3.
-1.  Согласно п. 1 ст. 18 Закона РФ от 07.02.1992 г. № 2300-1 «О защите прав потребителей» (далее Закон) потребитель имеет право на расторжение договора купли-продажи в отношении технически сложного товара, в том числе в случае:
+    <t>Номер задания</t>
+  </si>
+  <si>
+    <t>Самостоятельно подберите предлог, который должен стоять на месте пропуска в первом (1) предложении текста. Запишите этот предлог.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> вследствие  ввиду  из-за изза попричине  всилу</t>
+  </si>
+  <si>
+    <t>1.  Согласно п. 1 ст. 18 Закона РФ от 07.02.1992 г. № 2300-1 «О защите прав потребителей» (далее Закон) потребитель имеет право на расторжение договора купли-продажи в отношении технически сложного товара, в том числе в случае:
 — обнаружения существенного недостатка товара (существенный недостаток товара (работы, услуги)  — неустранимый недостаток или недостаток, который не может быть устранён без несоразмерных затрат времени);
 — невозможности использования товара в течение каждого года гарантийного срока в совокупности более чем тридцать дней &lt;...&gt; неоднократных работ по устранению его различных недостатков.
 2.  В соответствии со ст. 18 Закона, п. 6 ст. 24 Закона я, как потребитель, помимо расторжения договора купли-продажи имею право требовать возмещения убытков, причинённых мне вследствие продажи товара ненадлежащего качества.
 3.  Согласно п. 1 ст. 23 Закона за нарушение срока устранения недостатков товара продавец (изготовитель, уполномоченная организация или уполномоченный индивидуальный предприниматель, импортёр), допустивший такие нарушения, уплачивает потребителю за каждый день просрочки неустойку (пеню) в размере одного процента от стоимости товара.
 Согласно п. 2 ст. 13 вышеуказанного Закона такая неустойка взыскивается сверх убытков в полной сумме.</t>
-  </si>
-  <si>
-    <t>Номер задания</t>
-  </si>
-  <si>
-    <t>Самостоятельно подберите предлог, который должен стоять на месте пропуска в первом (1) предложении текста. Запишите этот предлог.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> вследствие  ввиду  из-за  по причине  в_силу</t>
   </si>
 </sst>
 </file>
@@ -427,26 +426,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.73046875" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="24.1328125" customWidth="1"/>
-    <col min="4" max="4" width="44.1328125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.73046875" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -470,48 +470,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/handlers/materials_for_studying/task_1/task_1.xlsx
+++ b/handlers/materials_for_studying/task_1/task_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FCFE53-2D50-43B9-B2EB-F406C344D6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8F34B1-AA04-476E-AC03-06C3DF897C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="2340" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Описание Задания</t>
   </si>
@@ -63,6 +63,28 @@
 2.  В соответствии со ст. 18 Закона, п. 6 ст. 24 Закона я, как потребитель, помимо расторжения договора купли-продажи имею право требовать возмещения убытков, причинённых мне вследствие продажи товара ненадлежащего качества.
 3.  Согласно п. 1 ст. 23 Закона за нарушение срока устранения недостатков товара продавец (изготовитель, уполномоченная организация или уполномоченный индивидуальный предприниматель, импортёр), допустивший такие нарушения, уплачивает потребителю за каждый день просрочки неустойку (пеню) в размере одного процента от стоимости товара.
 Согласно п. 2 ст. 13 вышеуказанного Закона такая неустойка взыскивается сверх убытков в полной сумме.</t>
+  </si>
+  <si>
+    <t>*пояснение*</t>
+  </si>
+  <si>
+    <t>*ссылка на видео*</t>
+  </si>
+  <si>
+    <t>*тайм код*</t>
+  </si>
+  <si>
+    <t>*номер теории*</t>
+  </si>
+  <si>
+    <t>Самостоятельно подберите подчинительный союз, который должен стоять на месте пропуска в пятом предложении второго абзаца. Запишите этот подчинительный союз.</t>
+  </si>
+  <si>
+    <t>Помните монолог героини Татьяны Дорониной в кинофильме «Старшая сестра»: «Театр!… Вы любите театр? Я хочу спросить: вы любите театр, как люблю его я, то есть всеми силами души вашей, со всем энтузиазмом, со всем исступлением, к которому только способна пылкая молодость, жадная и страстная до впечатлений изящного?» Никогда не думала, что эти первые строки смогут так впечатлить меня, тогда ещё восьмилетнего ребёнка, а страстный взгляд актрисы сможет так заворожить и напитать детскую душу, что спустя много лет я почувствую острую тягу признаться в любви. Кому? Чему?.. Балету.
+Итак, любите ли вы балет так, как его люблю я? Пожалуй, следует признать, что балет является самым изящным видом искусства. Разве что огранка редких и прекрасных драгоценных камней и создание тончайшей работы ювелирных изделий может сравниться с аристократичностью и гармонией движений в балете. Достаточно посмотреть балет Джорджа Баланчина «Драгоценности» (George Balanchine, Jewels), чтобы это сравнение не показалось случайным или чрезмерным. Рекомендую смотреть эту постановку в театре с ярусов, &lt;...&gt; именно сверху открывается наилучший вид на ювелирно выверенные узоры построений грациозных танцовщиц. Музыкальное повествование при этом ведётся об изумрудах, рубинах и бриллиантах. Роскошь!</t>
+  </si>
+  <si>
+    <t>поскольку ибо</t>
   </si>
 </sst>
 </file>
@@ -135,17 +157,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -426,62 +461,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/handlers/materials_for_studying/task_1/task_1.xlsx
+++ b/handlers/materials_for_studying/task_1/task_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8F34B1-AA04-476E-AC03-06C3DF897C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6C18F3B-128B-490E-B821-AEE57EFE146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2340" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Описание Задания</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>поскольку ибо</t>
+  </si>
+  <si>
+    <t>1221s</t>
+  </si>
+  <si>
+    <t>12s2s</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>ddd</t>
   </si>
 </sst>
 </file>
@@ -461,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +570,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>222</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
